--- a/biology/Botanique/Garda_(vin)/Garda_(vin).xlsx
+++ b/biology/Botanique/Garda_(vin)/Garda_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garda est le nom de plusieurs vins italiens produits dans les environs du lac de Garde, dans les provinces de Brescia et de Mantoue, en Lombardie, et dans la province de Vérone, où se trouve la ville de Garde. Les plus connus sont le chiaretto et le Garda classico (rouge).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Liste des appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Garda Barbera
 Garda Bresciano bianco (it)
